--- a/biology/Botanique/Rhinanthus/Rhinanthus.xlsx
+++ b/biology/Botanique/Rhinanthus/Rhinanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Rhinanthus (les rhinanthes) est un genre de plantes dicotylédones regroupant quelques dizaines d'espèces.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Fleurs de Rhinanthus.
@@ -548,12 +562,87 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Classification classique
-En classification linnéenne, les rhinanthes étaient classés dans la famille des Scrofulariacées.
-Classification  phylogénétique
-En classification APG III, ce genre est désormais classé dans la famille des Orobanchaceae, tribu des Rhinantheae.
-Liste d'espèces
-Le genre comprend entre autres les espèces :
+          <t>Classification classique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification linnéenne, les rhinanthes étaient classés dans la famille des Scrofulariacées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rhinanthus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rhinanthus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification  phylogénétique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification APG III, ce genre est désormais classé dans la famille des Orobanchaceae, tribu des Rhinantheae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rhinanthus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rhinanthus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le genre comprend entre autres les espèces :
 Rhinanthus angustifolius C.C. Gmel.
 Rhinanthus alectorolophus ou Rhinanthe crête-de-coq
 Rhinanthus borbasii
